--- a/UseExcelFileScope/InputFiles/Book2.xlsx
+++ b/UseExcelFileScope/InputFiles/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabbani\Documents\UiPath\UseExcelFileScope\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6F6109-3FDE-4069-9411-82E94EC3A16B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D3EF0-5B92-4E36-AD4D-F3A4728346D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1" xr2:uid="{05F9EE4B-3956-4FA6-ABE7-DC284F26F6FA}"/>
   </bookViews>

--- a/UseExcelFileScope/InputFiles/Book2.xlsx
+++ b/UseExcelFileScope/InputFiles/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabbani\Documents\UiPath\UseExcelFileScope\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D3EF0-5B92-4E36-AD4D-F3A4728346D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5CF56-F86E-4E41-A330-1F97FF58F580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1" xr2:uid="{05F9EE4B-3956-4FA6-ABE7-DC284F26F6FA}"/>
   </bookViews>
